--- a/code/individual_project_experiment.xlsx
+++ b/code/individual_project_experiment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakazuho/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakazuho/Desktop/大四/second_semester/cmpt417/cmpt417_individual_project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4723EF-23A4-0349-AB7C-DF9EF8C4288A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74CEE6E-B192-7642-B661-B1203A0CBC5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="600" windowWidth="28040" windowHeight="16500" xr2:uid="{85FA0B80-89E5-5C4C-BA05-8673B18533A2}"/>
+    <workbookView xWindow="760" yWindow="480" windowWidth="28040" windowHeight="16500" xr2:uid="{85FA0B80-89E5-5C4C-BA05-8673B18533A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>instances/test_1.txt</t>
   </si>
@@ -192,20 +192,14 @@
     <t>CBS</t>
   </si>
   <si>
-    <t>CBS with disjoint a2</t>
-  </si>
-  <si>
-    <t>CBS with disjoint a1</t>
-  </si>
-  <si>
-    <t>CBS with disjoint random</t>
+    <t>solved CBS with disjoint random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,19 +211,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -253,11 +234,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,20 +551,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AB27C5-F29B-8243-A972-D1B880E04366}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>50</v>
       </c>
@@ -595,14 +576,8 @@
       <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,16 +588,10 @@
         <v>41</v>
       </c>
       <c r="D2" s="1">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1">
         <v>41</v>
       </c>
-      <c r="F2" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,16 +602,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -655,14 +618,8 @@
       <c r="D4" s="1">
         <v>35</v>
       </c>
-      <c r="E4" s="1">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -673,16 +630,10 @@
         <v>36</v>
       </c>
       <c r="D5" s="1">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1">
         <v>36</v>
       </c>
-      <c r="F5" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -693,16 +644,10 @@
         <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -715,14 +660,8 @@
       <c r="D7" s="1">
         <v>24</v>
       </c>
-      <c r="E7" s="1">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -735,14 +674,8 @@
       <c r="D8" s="1">
         <v>50</v>
       </c>
-      <c r="E8" s="1">
-        <v>52</v>
-      </c>
-      <c r="F8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -755,14 +688,8 @@
       <c r="D9" s="1">
         <v>51</v>
       </c>
-      <c r="E9" s="1">
-        <v>55</v>
-      </c>
-      <c r="F9" s="3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -775,14 +702,8 @@
       <c r="D10" s="1">
         <v>39</v>
       </c>
-      <c r="E10" s="1">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -795,14 +716,8 @@
       <c r="D11" s="1">
         <v>32</v>
       </c>
-      <c r="E11" s="1">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -813,16 +728,10 @@
         <v>47</v>
       </c>
       <c r="D12" s="1">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1">
-        <v>51</v>
-      </c>
-      <c r="F12" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -835,14 +744,8 @@
       <c r="D13" s="1">
         <v>18</v>
       </c>
-      <c r="E13" s="1">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -855,14 +758,8 @@
       <c r="D14" s="1">
         <v>28</v>
       </c>
-      <c r="E14" s="1">
-        <v>28</v>
-      </c>
-      <c r="F14" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -875,14 +772,8 @@
       <c r="D15" s="1">
         <v>46</v>
       </c>
-      <c r="E15" s="1">
-        <v>49</v>
-      </c>
-      <c r="F15" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -895,14 +786,8 @@
       <c r="D16" s="1">
         <v>51</v>
       </c>
-      <c r="E16" s="1">
-        <v>51</v>
-      </c>
-      <c r="F16" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -915,14 +800,8 @@
       <c r="D17" s="1">
         <v>32</v>
       </c>
-      <c r="E17" s="1">
-        <v>32</v>
-      </c>
-      <c r="F17" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -935,14 +814,8 @@
       <c r="D18" s="1">
         <v>47</v>
       </c>
-      <c r="E18" s="1">
-        <v>47</v>
-      </c>
-      <c r="F18" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -955,14 +828,8 @@
       <c r="D19" s="1">
         <v>40</v>
       </c>
-      <c r="E19" s="1">
-        <v>40</v>
-      </c>
-      <c r="F19" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -975,14 +842,8 @@
       <c r="D20" s="1">
         <v>42</v>
       </c>
-      <c r="E20" s="1">
-        <v>42</v>
-      </c>
-      <c r="F20" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -993,16 +854,10 @@
         <v>40</v>
       </c>
       <c r="D21" s="1">
-        <v>42</v>
-      </c>
-      <c r="E21" s="1">
         <v>40</v>
       </c>
-      <c r="F21" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1015,14 +870,8 @@
       <c r="D22" s="1">
         <v>41</v>
       </c>
-      <c r="E22" s="1">
-        <v>45</v>
-      </c>
-      <c r="F22" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1033,16 +882,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="1">
-        <v>50</v>
-      </c>
-      <c r="E23" s="1">
-        <v>54</v>
-      </c>
-      <c r="F23" s="3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1055,14 +898,8 @@
       <c r="D24" s="1">
         <v>28</v>
       </c>
-      <c r="E24" s="1">
-        <v>28</v>
-      </c>
-      <c r="F24" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1073,16 +910,10 @@
         <v>43</v>
       </c>
       <c r="D25" s="1">
-        <v>44</v>
-      </c>
-      <c r="E25" s="1">
         <v>43</v>
       </c>
-      <c r="F25" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1095,14 +926,8 @@
       <c r="D26" s="1">
         <v>39</v>
       </c>
-      <c r="E26" s="1">
-        <v>40</v>
-      </c>
-      <c r="F26" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1115,14 +940,8 @@
       <c r="D27" s="1">
         <v>30</v>
       </c>
-      <c r="E27" s="1">
-        <v>31</v>
-      </c>
-      <c r="F27" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1133,16 +952,10 @@
         <v>28</v>
       </c>
       <c r="D28" s="1">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1">
         <v>28</v>
       </c>
-      <c r="F28" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1155,14 +968,8 @@
       <c r="D29" s="1">
         <v>33</v>
       </c>
-      <c r="E29" s="1">
-        <v>33</v>
-      </c>
-      <c r="F29" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1173,16 +980,10 @@
         <v>30</v>
       </c>
       <c r="D30" s="1">
-        <v>31</v>
-      </c>
-      <c r="E30" s="1">
-        <v>32</v>
-      </c>
-      <c r="F30" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1195,14 +996,8 @@
       <c r="D31" s="1">
         <v>23</v>
       </c>
-      <c r="E31" s="1">
-        <v>23</v>
-      </c>
-      <c r="F31" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1215,14 +1010,8 @@
       <c r="D32" s="1">
         <v>38</v>
       </c>
-      <c r="E32" s="1">
-        <v>38</v>
-      </c>
-      <c r="F32" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1235,14 +1024,8 @@
       <c r="D33" s="1">
         <v>28</v>
       </c>
-      <c r="E33" s="1">
-        <v>28</v>
-      </c>
-      <c r="F33" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1253,16 +1036,10 @@
         <v>35</v>
       </c>
       <c r="D34" s="1">
-        <v>36</v>
-      </c>
-      <c r="E34" s="1">
         <v>35</v>
       </c>
-      <c r="F34" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1275,14 +1052,8 @@
       <c r="D35" s="1">
         <v>32</v>
       </c>
-      <c r="E35" s="1">
-        <v>32</v>
-      </c>
-      <c r="F35" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1293,16 +1064,10 @@
         <v>24</v>
       </c>
       <c r="D36" s="1">
-        <v>27</v>
-      </c>
-      <c r="E36" s="1">
-        <v>24</v>
-      </c>
-      <c r="F36" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1315,14 +1080,8 @@
       <c r="D37" s="1">
         <v>45</v>
       </c>
-      <c r="E37" s="1">
-        <v>45</v>
-      </c>
-      <c r="F37" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1335,14 +1094,8 @@
       <c r="D38" s="1">
         <v>57</v>
       </c>
-      <c r="E38" s="1">
-        <v>57</v>
-      </c>
-      <c r="F38" s="3">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1353,16 +1106,10 @@
         <v>43</v>
       </c>
       <c r="D39" s="1">
-        <v>46</v>
-      </c>
-      <c r="E39" s="1">
         <v>43</v>
       </c>
-      <c r="F39" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1375,14 +1122,8 @@
       <c r="D40" s="1">
         <v>33</v>
       </c>
-      <c r="E40" s="1">
-        <v>33</v>
-      </c>
-      <c r="F40" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1395,14 +1136,8 @@
       <c r="D41" s="1">
         <v>24</v>
       </c>
-      <c r="E41" s="1">
-        <v>28</v>
-      </c>
-      <c r="F41" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1413,16 +1148,10 @@
         <v>57</v>
       </c>
       <c r="D42" s="1">
-        <v>58</v>
-      </c>
-      <c r="E42" s="1">
-        <v>60</v>
-      </c>
-      <c r="F42" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1435,14 +1164,8 @@
       <c r="D43" s="1">
         <v>65</v>
       </c>
-      <c r="E43" s="1">
-        <v>66</v>
-      </c>
-      <c r="F43" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1455,14 +1178,8 @@
       <c r="D44" s="1">
         <v>36</v>
       </c>
-      <c r="E44" s="1">
-        <v>36</v>
-      </c>
-      <c r="F44" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1475,14 +1192,8 @@
       <c r="D45" s="1">
         <v>42</v>
       </c>
-      <c r="E45" s="1">
-        <v>42</v>
-      </c>
-      <c r="F45" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1495,14 +1206,8 @@
       <c r="D46" s="1">
         <v>26</v>
       </c>
-      <c r="E46" s="1">
-        <v>29</v>
-      </c>
-      <c r="F46" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1513,16 +1218,10 @@
         <v>48</v>
       </c>
       <c r="D47" s="1">
-        <v>58</v>
-      </c>
-      <c r="E47" s="1">
         <v>48</v>
       </c>
-      <c r="F47" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1535,14 +1234,8 @@
       <c r="D48" s="1">
         <v>24</v>
       </c>
-      <c r="E48" s="1">
-        <v>24</v>
-      </c>
-      <c r="F48" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1555,14 +1248,8 @@
       <c r="D49" s="1">
         <v>34</v>
       </c>
-      <c r="E49" s="1">
-        <v>34</v>
-      </c>
-      <c r="F49" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1573,16 +1260,10 @@
         <v>38</v>
       </c>
       <c r="D50" s="1">
-        <v>41</v>
-      </c>
-      <c r="E50" s="1">
         <v>38</v>
       </c>
-      <c r="F50" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1593,12 +1274,6 @@
         <v>24</v>
       </c>
       <c r="D51" s="1">
-        <v>24</v>
-      </c>
-      <c r="E51" s="1">
-        <v>24</v>
-      </c>
-      <c r="F51" s="3">
         <v>24</v>
       </c>
     </row>

--- a/code/individual_project_experiment.xlsx
+++ b/code/individual_project_experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakazuho/Desktop/大四/second_semester/cmpt417/cmpt417_individual_project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74CEE6E-B192-7642-B661-B1203A0CBC5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719BDED9-5AFD-6249-8839-6ED7C7FC21B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="480" windowWidth="28040" windowHeight="16500" xr2:uid="{85FA0B80-89E5-5C4C-BA05-8673B18533A2}"/>
   </bookViews>
@@ -186,13 +186,13 @@
     <t>instances/test_9.txt</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
     <t>CBS</t>
   </si>
   <si>
-    <t>solved CBS with disjoint random</t>
+    <t>disjoint CPU time</t>
+  </si>
+  <si>
+    <t>prioritized</t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AB27C5-F29B-8243-A972-D1B880E04366}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,14 +564,15 @@
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
     <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>52</v>
@@ -581,700 +582,700 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1">
-        <v>41</v>
+      <c r="B2">
+        <v>7.53674507141113E-2</v>
+      </c>
+      <c r="C2">
+        <v>8.1161022186279297E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.6811828613281198E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1">
-        <v>19</v>
+      <c r="B3">
+        <v>2.0291805267333902E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.6152858734130801E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.05929374694824E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1">
-        <v>35</v>
+      <c r="B4">
+        <v>2.6986598968505799E-3</v>
+      </c>
+      <c r="C4">
+        <v>2.8431415557861302E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.85117530822753E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1">
-        <v>36</v>
+      <c r="B5">
+        <v>3.8163661956787101E-3</v>
+      </c>
+      <c r="C5">
+        <v>3.9410591125488203E-3</v>
+      </c>
+      <c r="D5">
+        <v>5.48315048217773E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1">
-        <v>36</v>
+      <c r="B6">
+        <v>6.9169998168945304E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.9565048217773403E-3</v>
+      </c>
+      <c r="D6">
+        <v>8.2347393035888602E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1">
-        <v>24</v>
+      <c r="B7">
+        <v>1.3532638549804601E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.4131069183349601E-3</v>
+      </c>
+      <c r="D7">
+        <v>9.3245506286620996E-4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
-        <v>50</v>
+      <c r="B8">
+        <v>1.1457204818725499E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.3095617294311499E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.53620243072509E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1">
-        <v>51</v>
+      <c r="B9">
+        <v>4.2544364929199198E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.7270307540893499E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.04486942291259E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1">
-        <v>39</v>
+      <c r="B10">
+        <v>9.5438957214355404E-4</v>
+      </c>
+      <c r="C10">
+        <v>6.3848495483398405E-4</v>
+      </c>
+      <c r="D10">
+        <v>3.36694717407226E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1">
-        <v>32</v>
+      <c r="B11">
+        <v>3.71789932250976E-3</v>
+      </c>
+      <c r="C11">
+        <v>3.5662651062011701E-3</v>
+      </c>
+      <c r="D11">
+        <v>3.2761096954345699E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1">
-        <v>47</v>
+      <c r="B12">
+        <v>5.4986476898193299E-3</v>
+      </c>
+      <c r="C12">
+        <v>6.425142288208E-3</v>
+      </c>
+      <c r="D12">
+        <v>8.5518360137939401E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1">
-        <v>18</v>
+      <c r="B13">
+        <v>2.6106834411621002E-4</v>
+      </c>
+      <c r="C13">
+        <v>7.8892707824706999E-4</v>
+      </c>
+      <c r="D13">
+        <v>2.8367042541503902E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1">
-        <v>28</v>
+      <c r="B14">
+        <v>1.7185211181640599E-3</v>
+      </c>
+      <c r="C14">
+        <v>3.5109519958495998E-3</v>
+      </c>
+      <c r="D14">
+        <v>8.0332756042480399E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1">
-        <v>46</v>
+      <c r="B15">
+        <v>3.2134056091308498E-3</v>
+      </c>
+      <c r="C15">
+        <v>3.4182071685790998E-3</v>
+      </c>
+      <c r="D15">
+        <v>6.5925121307373004E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>51</v>
-      </c>
-      <c r="C16" s="1">
-        <v>51</v>
-      </c>
-      <c r="D16" s="1">
-        <v>51</v>
+      <c r="B16">
+        <v>8.3160400390625E-3</v>
+      </c>
+      <c r="C16">
+        <v>5.3369998931884696E-3</v>
+      </c>
+      <c r="D16">
+        <v>6.4454078674316398E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1">
-        <v>32</v>
+      <c r="B17">
+        <v>1.0240077972412101E-3</v>
+      </c>
+      <c r="C17">
+        <v>2.0377635955810499E-3</v>
+      </c>
+      <c r="D17">
+        <v>3.6759376525878902E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1">
-        <v>47</v>
-      </c>
-      <c r="D18" s="1">
-        <v>47</v>
+      <c r="B18">
+        <v>9.857177734375E-3</v>
+      </c>
+      <c r="C18">
+        <v>8.5699558258056606E-3</v>
+      </c>
+      <c r="D18">
+        <v>9.2825889587402292E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1">
-        <v>40</v>
+      <c r="B19">
+        <v>4.9493312835693299E-3</v>
+      </c>
+      <c r="C19">
+        <v>3.6027431488037101E-3</v>
+      </c>
+      <c r="D19">
+        <v>5.1670074462890599E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1">
-        <v>42</v>
+      <c r="B20">
+        <v>6.2150955200195304E-3</v>
+      </c>
+      <c r="C20">
+        <v>3.7994384765625E-3</v>
+      </c>
+      <c r="D20">
+        <v>6.8011283874511701E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1">
-        <v>40</v>
+      <c r="B21">
+        <v>3.9758682250976502E-3</v>
+      </c>
+      <c r="C21">
+        <v>4.6775341033935504E-3</v>
+      </c>
+      <c r="D21">
+        <v>3.8647651672363199E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1">
-        <v>41</v>
-      </c>
-      <c r="D22" s="1">
-        <v>41</v>
+      <c r="B22">
+        <v>6.2029361724853498E-3</v>
+      </c>
+      <c r="C22">
+        <v>6.2870979309081997E-3</v>
+      </c>
+      <c r="D22">
+        <v>4.2791366577148403E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1">
-        <v>48</v>
-      </c>
-      <c r="D23" s="1">
-        <v>48</v>
+      <c r="B23">
+        <v>1.5974283218383699E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.08642578125E-2</v>
+      </c>
+      <c r="D23">
+        <v>9.9413394927978498E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1">
-        <v>28</v>
-      </c>
-      <c r="D24" s="1">
-        <v>28</v>
+      <c r="B24">
+        <v>4.2390823364257802E-4</v>
+      </c>
+      <c r="C24">
+        <v>3.58343124389648E-4</v>
+      </c>
+      <c r="D24">
+        <v>7.0610046386718698E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>43</v>
-      </c>
-      <c r="C25" s="1">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1">
-        <v>43</v>
+      <c r="B25">
+        <v>6.3147068023681599E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.25292444229125899</v>
+      </c>
+      <c r="D25">
+        <v>5.8491230010986302E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1">
-        <v>39</v>
-      </c>
-      <c r="D26" s="1">
-        <v>39</v>
+      <c r="B26">
+        <v>4.3585300445556597E-3</v>
+      </c>
+      <c r="C26">
+        <v>4.1520595550537101E-3</v>
+      </c>
+      <c r="D26">
+        <v>2.44903564453125E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1">
-        <v>30</v>
-      </c>
-      <c r="D27" s="1">
-        <v>30</v>
+      <c r="B27">
+        <v>6.08062744140625E-3</v>
+      </c>
+      <c r="C27">
+        <v>5.0501823425292899E-3</v>
+      </c>
+      <c r="D27">
+        <v>3.0467510223388598E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1">
-        <v>28</v>
-      </c>
-      <c r="D28" s="1">
-        <v>28</v>
+      <c r="B28">
+        <v>5.8894157409667899E-3</v>
+      </c>
+      <c r="C28">
+        <v>4.2626857757568299E-3</v>
+      </c>
+      <c r="D28">
+        <v>1.3697147369384701E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1">
-        <v>33</v>
+      <c r="B29">
+        <v>1.28793716430664E-3</v>
+      </c>
+      <c r="C29">
+        <v>1.3239383697509701E-3</v>
+      </c>
+      <c r="D29">
+        <v>2.427339553833E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1">
-        <v>30</v>
-      </c>
-      <c r="D30" s="1">
-        <v>30</v>
+      <c r="B30">
+        <v>1.5697479248046799E-3</v>
+      </c>
+      <c r="C30">
+        <v>1.8925666809082001E-3</v>
+      </c>
+      <c r="D30">
+        <v>2.1173954010009701E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
-        <v>23</v>
-      </c>
-      <c r="C31" s="1">
-        <v>23</v>
-      </c>
-      <c r="D31" s="1">
-        <v>23</v>
+      <c r="B31">
+        <v>8.2087516784667904E-4</v>
+      </c>
+      <c r="C31">
+        <v>8.3494186401367101E-4</v>
+      </c>
+      <c r="D31">
+        <v>1.13153457641601E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
-        <v>38</v>
-      </c>
-      <c r="C32" s="1">
-        <v>38</v>
-      </c>
-      <c r="D32" s="1">
-        <v>38</v>
+      <c r="B32">
+        <v>7.8346729278564401E-3</v>
+      </c>
+      <c r="C32">
+        <v>3.0104398727416899E-2</v>
+      </c>
+      <c r="D32">
+        <v>1.2075901031494099E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
-        <v>28</v>
-      </c>
-      <c r="C33" s="1">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1">
-        <v>28</v>
+      <c r="B33">
+        <v>3.5881996154785102E-4</v>
+      </c>
+      <c r="C33">
+        <v>1.1184215545654199E-3</v>
+      </c>
+      <c r="D33">
+        <v>1.18994712829589E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1">
-        <v>35</v>
-      </c>
-      <c r="D34" s="1">
-        <v>35</v>
+      <c r="B34">
+        <v>1.9979476928710898E-3</v>
+      </c>
+      <c r="C34">
+        <v>1.5416145324707001E-3</v>
+      </c>
+      <c r="D34">
+        <v>5.7275295257568299E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
-        <v>32</v>
-      </c>
-      <c r="C35" s="1">
-        <v>32</v>
-      </c>
-      <c r="D35" s="1">
-        <v>32</v>
+      <c r="B35">
+        <v>9.3758106231689401E-3</v>
+      </c>
+      <c r="C35">
+        <v>9.0537071228027292E-3</v>
+      </c>
+      <c r="D35">
+        <v>3.74078750610351E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
-        <v>24</v>
-      </c>
-      <c r="C36" s="1">
-        <v>24</v>
-      </c>
-      <c r="D36" s="1">
-        <v>24</v>
+      <c r="B36">
+        <v>9.3364715576171799E-4</v>
+      </c>
+      <c r="C36">
+        <v>1.0988712310791E-3</v>
+      </c>
+      <c r="D36">
+        <v>1.6117095947265599E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
-        <v>45</v>
-      </c>
-      <c r="C37" s="1">
-        <v>45</v>
-      </c>
-      <c r="D37" s="1">
-        <v>45</v>
+      <c r="B37">
+        <v>0.153488159179687</v>
+      </c>
+      <c r="C37">
+        <v>0.31549978256225503</v>
+      </c>
+      <c r="D37">
+        <v>2.7370452880859301E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
-        <v>57</v>
-      </c>
-      <c r="C38" s="1">
-        <v>57</v>
-      </c>
-      <c r="D38" s="1">
-        <v>57</v>
+      <c r="B38">
+        <v>6.2544822692871094E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.233575344085693</v>
+      </c>
+      <c r="D38">
+        <v>3.3724308013915998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
-        <v>43</v>
-      </c>
-      <c r="C39" s="1">
-        <v>43</v>
-      </c>
-      <c r="D39" s="1">
-        <v>43</v>
+      <c r="B39">
+        <v>8.2554817199706997E-3</v>
+      </c>
+      <c r="C39">
+        <v>6.28423690795898E-3</v>
+      </c>
+      <c r="D39">
+        <v>4.6730041503906198E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
-        <v>33</v>
-      </c>
-      <c r="C40" s="1">
-        <v>33</v>
-      </c>
-      <c r="D40" s="1">
-        <v>33</v>
+      <c r="B40">
+        <v>6.4756870269775304E-3</v>
+      </c>
+      <c r="C40">
+        <v>4.7435760498046797E-3</v>
+      </c>
+      <c r="D40">
+        <v>4.3432712554931597E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1">
-        <v>24</v>
-      </c>
-      <c r="D41" s="1">
-        <v>24</v>
+      <c r="B41">
+        <v>9.4842910766601497E-4</v>
+      </c>
+      <c r="C41">
+        <v>1.16491317749023E-3</v>
+      </c>
+      <c r="D41">
+        <v>1.86920166015625E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
-        <v>57</v>
-      </c>
-      <c r="C42" s="1">
-        <v>57</v>
-      </c>
-      <c r="D42" s="1">
-        <v>57</v>
+      <c r="B42">
+        <v>1.36537551879882E-2</v>
+      </c>
+      <c r="C42">
+        <v>2.1907806396484299E-2</v>
+      </c>
+      <c r="D42">
+        <v>8.2559585571288993E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
-        <v>65</v>
-      </c>
-      <c r="C43" s="1">
-        <v>65</v>
-      </c>
-      <c r="D43" s="1">
-        <v>65</v>
+      <c r="B43">
+        <v>5.6073708534240696</v>
+      </c>
+      <c r="C43">
+        <v>236.32924389839101</v>
+      </c>
+      <c r="D43">
+        <v>1.04031562805175E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
-        <v>36</v>
-      </c>
-      <c r="C44" s="1">
-        <v>36</v>
-      </c>
-      <c r="D44" s="1">
-        <v>36</v>
+      <c r="B44">
+        <v>3.6640167236328099E-3</v>
+      </c>
+      <c r="C44">
+        <v>2.8479099273681602E-3</v>
+      </c>
+      <c r="D44">
+        <v>2.67672538757324E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
-        <v>42</v>
-      </c>
-      <c r="C45" s="1">
-        <v>42</v>
-      </c>
-      <c r="D45" s="1">
-        <v>42</v>
+      <c r="B45">
+        <v>4.55594062805175E-3</v>
+      </c>
+      <c r="C45">
+        <v>3.5121440887451098E-3</v>
+      </c>
+      <c r="D45">
+        <v>2.67624855041503E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
-        <v>26</v>
-      </c>
-      <c r="C46" s="1">
-        <v>26</v>
-      </c>
-      <c r="D46" s="1">
-        <v>26</v>
+      <c r="B46">
+        <v>3.2916069030761701E-3</v>
+      </c>
+      <c r="C46">
+        <v>2.5062561035156198E-3</v>
+      </c>
+      <c r="D46">
+        <v>2.2552013397216701E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
-        <v>48</v>
-      </c>
-      <c r="C47" s="1">
-        <v>48</v>
-      </c>
-      <c r="D47" s="1">
-        <v>48</v>
+      <c r="B47">
+        <v>2.34797000885009E-2</v>
+      </c>
+      <c r="C47">
+        <v>2.2433519363403299E-2</v>
+      </c>
+      <c r="D47">
+        <v>9.2158317565917899E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
-        <v>24</v>
-      </c>
-      <c r="C48" s="1">
-        <v>24</v>
-      </c>
-      <c r="D48" s="1">
-        <v>24</v>
+      <c r="B48">
+        <v>1.4128684997558501E-3</v>
+      </c>
+      <c r="C48">
+        <v>1.3787746429443301E-3</v>
+      </c>
+      <c r="D48">
+        <v>2.4352073669433498E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
-        <v>34</v>
-      </c>
-      <c r="C49" s="1">
-        <v>34</v>
-      </c>
-      <c r="D49" s="1">
-        <v>34</v>
+      <c r="B49">
+        <v>8.7189674377441395E-4</v>
+      </c>
+      <c r="C49">
+        <v>1.2083053588867101E-3</v>
+      </c>
+      <c r="D49">
+        <v>1.7721652984619099E-3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
-        <v>38</v>
-      </c>
-      <c r="C50" s="1">
-        <v>38</v>
-      </c>
-      <c r="D50" s="1">
-        <v>38</v>
+      <c r="B50">
+        <v>5.2141666412353502E-2</v>
+      </c>
+      <c r="C50">
+        <v>0.19792103767395</v>
+      </c>
+      <c r="D50">
+        <v>3.3788681030273398E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
-        <v>24</v>
-      </c>
-      <c r="C51" s="1">
-        <v>24</v>
-      </c>
-      <c r="D51" s="1">
-        <v>24</v>
+      <c r="B51">
+        <v>3.9863586425781201E-4</v>
+      </c>
+      <c r="C51">
+        <v>3.9911270141601497E-4</v>
+      </c>
+      <c r="D51">
+        <v>1.0623931884765599E-3</v>
       </c>
     </row>
   </sheetData>
